--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Alk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Alk.xlsx
@@ -534,22 +534,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H2">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I2">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J2">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0472895118</v>
+        <v>0.01652991732</v>
       </c>
       <c r="R2">
-        <v>0.4256056062</v>
+        <v>0.14876925588</v>
       </c>
       <c r="S2">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="T2">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H3">
         <v>37.45258</v>
       </c>
       <c r="I3">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J3">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4714447542444445</v>
+        <v>0.4714447542444444</v>
       </c>
       <c r="R3">
-        <v>4.243002788200001</v>
+        <v>4.2430027882</v>
       </c>
       <c r="S3">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="T3">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H4">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I4">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J4">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.05307967558555556</v>
+        <v>0.06785324544777778</v>
       </c>
       <c r="R4">
-        <v>0.47771708027</v>
+        <v>0.6106792090299999</v>
       </c>
       <c r="S4">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="T4">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H5">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I5">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J5">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.1618557614133334</v>
+        <v>0.1740250711066667</v>
       </c>
       <c r="R5">
-        <v>0.9711345684800002</v>
+        <v>1.04415042664</v>
       </c>
       <c r="S5">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="T5">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H6">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I6">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J6">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.08821290604222223</v>
+        <v>0.07795155100222223</v>
       </c>
       <c r="R6">
-        <v>0.7939161543800001</v>
+        <v>0.70156395902</v>
       </c>
       <c r="S6">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="T6">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
     </row>
   </sheetData>
